--- a/dvd2.xlsx
+++ b/dvd2.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -489,6 +489,11 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>UPC</t>
+        </is>
+      </c>
       <c r="B1" s="5" t="inlineStr">
         <is>
           <t>BOX 1</t>
@@ -529,6 +534,11 @@
       <c r="F2" s="6" t="inlineStr">
         <is>
           <t>UPC</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>794043489426</t>
         </is>
       </c>
     </row>
@@ -548,6 +558,11 @@
       <c r="F3" s="6" t="n">
         <v>786936197372</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>27616905734</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="n">
@@ -565,6 +580,11 @@
       <c r="F4" s="6" t="n">
         <v>25192245626</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>65935139317</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A5" s="4" t="n">
@@ -582,6 +602,11 @@
       <c r="F5" s="6" t="n">
         <v>43396060500</v>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>85391200239</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="4" t="n">
@@ -599,6 +624,11 @@
       <c r="F6" s="6" t="n">
         <v>65935203711</v>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>796019799720</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="n">
@@ -616,6 +646,11 @@
       <c r="F7" s="6" t="n">
         <v>24543665892</v>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>65935222781</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="n">
@@ -633,6 +668,11 @@
       <c r="F8" s="6" t="n">
         <v>24543028963</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>12569766426</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="4" t="n">
@@ -650,6 +690,11 @@
       <c r="F9" s="6" t="n">
         <v>43396185746</v>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>794043457722</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A10" s="4" t="n">
@@ -667,6 +712,11 @@
       <c r="F10" s="6" t="n">
         <v>26359336522</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>43396036635</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" thickBot="1">
       <c r="A11" s="3" t="n">
@@ -684,6 +734,11 @@
       <c r="F11" s="6" t="n">
         <v>24543156079</v>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>43396051492</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="15.75" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="n">
@@ -701,6 +756,11 @@
       <c r="F12" s="6" t="n">
         <v>43396080300</v>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>678149439229</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" thickBot="1">
       <c r="A13" s="4" t="n">
@@ -718,6 +778,11 @@
       <c r="F13" s="6" t="n">
         <v>812034011774</v>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>85391108627</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A14" s="3" t="n">
@@ -735,6 +800,11 @@
       <c r="F14" s="6" t="n">
         <v>786936242164</v>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>57373177891</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="15.75" customHeight="1" thickBot="1">
       <c r="A15" s="4" t="n">
@@ -752,6 +822,11 @@
       <c r="F15" s="6" t="n">
         <v>43396142374</v>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>25192181818</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="n">
@@ -769,6 +844,11 @@
       <c r="F16" s="6" t="n">
         <v>12569818378</v>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>85393893927</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="3" t="n">
@@ -786,6 +866,11 @@
       <c r="F17" s="6" t="n">
         <v>786936239492</v>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>65935221814</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="4" t="n">
@@ -800,6 +885,11 @@
       <c r="E18" s="6" t="n">
         <v>43396067660</v>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>25192099915</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="4" t="n">
@@ -814,6 +904,11 @@
       <c r="E19" s="6" t="n">
         <v>43396036635</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>794043528422</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="n">
@@ -828,6 +923,11 @@
       <c r="E20" s="6" t="n">
         <v>32429308900</v>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>26359336522</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="n">
@@ -842,6 +942,11 @@
       <c r="E21" s="6" t="n">
         <v>43396154193</v>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>85391138877</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="4" t="n">
@@ -856,6 +961,11 @@
       <c r="E22" s="6" t="n">
         <v>27616625991</v>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>85392864829</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="4" t="n">
@@ -870,6 +980,11 @@
       <c r="E23" s="6" t="n">
         <v>85392864829</v>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>779836166395</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="n">
@@ -884,6 +999,11 @@
       <c r="E24" s="6" t="n">
         <v>796019799720</v>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>786936197372</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="n">
@@ -898,6 +1018,11 @@
       <c r="E25" s="6" t="n">
         <v>96009999094</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>97361300542</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="4" t="n">
@@ -912,6 +1037,11 @@
       <c r="E26" s="6" t="n">
         <v>24543101802</v>
       </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>97363532866</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="4" t="n">
@@ -926,8 +1056,460 @@
       <c r="E27" s="6" t="n">
         <v>27616905734</v>
       </c>
-    </row>
-    <row r="28"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>794043130113</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>25192632426</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>97360804942</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>25192879227</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>85391198307</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>24543656067</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>786936787238</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>24543407249</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>43396190856</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>96009155193</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>43396185746</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>25192472220</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>24543496861</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>18713811110</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>24543602859</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>883929107742</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>794043541322</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>25192671920</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>43396080300</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>85391448228</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>794043135330</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>27616857804</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>25192870620</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>24543028963</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>24543665892</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>786936239492</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>12569818378</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>65935823605</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>96009999094</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>97361186047</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>12569722675</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>883904138143</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>43396142374</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>31398163251</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>786936758757</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>27616625991</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>31398126409</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>43396067660</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>786936242164</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>43396154193</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>27616626523</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>43396060500</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>786936165371</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>678149059120</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>24543101802</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>24543156079</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>667068998221</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>25192245626</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>43396261747</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>12569593220</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>85391139683</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>65935203711</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>774212000324</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>25192050091</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>786936156232</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>11891850179</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>85393894825</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>97361244068</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>24543563723</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>65935200703</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>24543853015</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>32429308900</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>812034011774</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>12569701366</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>774212005015</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
